--- a/makerclan/projects/ELRMD059043/ELRMD059043.xlsx
+++ b/makerclan/projects/ELRMD059043/ELRMD059043.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>project_id</t>
   </si>
@@ -55,7 +55,10 @@
     <t>Arduino , GSM Shield</t>
   </si>
   <si>
-    <t>2017-12-15</t>
+    <t>flag</t>
+  </si>
+  <si>
+    <t>2018-01-15</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -428,7 +431,7 @@
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,8 +453,11 @@
       <c r="G1" t="s">
         <v>11</v>
       </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="222" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="222" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -468,10 +474,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/makerclan/projects/ELRMD059043/ELRMD059043.xlsx
+++ b/makerclan/projects/ELRMD059043/ELRMD059043.xlsx
@@ -58,7 +58,7 @@
     <t>flag</t>
   </si>
   <si>
-    <t>2018-01-15</t>
+    <t>2018-02-16</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/makerclan/projects/ELRMD059043/ELRMD059043.xlsx
+++ b/makerclan/projects/ELRMD059043/ELRMD059043.xlsx
@@ -58,7 +58,7 @@
     <t>flag</t>
   </si>
   <si>
-    <t>2018-02-16</t>
+    <t>2018-03-10</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
